--- a/datas/student_excel/student_excel_modify.xlsx
+++ b/datas/student_excel/student_excel_modify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyce/kingfish-python/kingfish-python/datas/student_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A05CF7F-485C-684F-8FE6-42D0B8061D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5741975-F700-484C-B206-831A61A99936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1480" windowWidth="27440" windowHeight="15080" xr2:uid="{59D8891A-95C4-3A4A-9639-44B1F5253234}"/>
+    <workbookView xWindow="1360" yWindow="1440" windowWidth="27440" windowHeight="15080" xr2:uid="{59D8891A-95C4-3A4A-9639-44B1F5253234}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +154,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,7 +510,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>95</v>
       </c>
     </row>
@@ -530,10 +537,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
@@ -558,7 +565,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>100</v>
       </c>
     </row>
